--- a/data/pca/factorExposure/factorExposure_2008-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-17.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01898089103032907</v>
+        <v>-0.01747047212229687</v>
       </c>
       <c r="C2">
-        <v>0.01232453199860043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01383494094592063</v>
+      </c>
+      <c r="D2">
+        <v>0.01961056903751648</v>
+      </c>
+      <c r="E2">
+        <v>0.01764960696550591</v>
+      </c>
+      <c r="F2">
+        <v>0.009386188682947046</v>
+      </c>
+      <c r="G2">
+        <v>0.006987711907021517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08058936658222082</v>
+        <v>-0.08372446065474726</v>
       </c>
       <c r="C4">
-        <v>0.0849409723149586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08755318702427373</v>
+      </c>
+      <c r="D4">
+        <v>-0.05222831227004231</v>
+      </c>
+      <c r="E4">
+        <v>0.03673651622666779</v>
+      </c>
+      <c r="F4">
+        <v>0.001118370452718068</v>
+      </c>
+      <c r="G4">
+        <v>0.04385767568267942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004941580193002286</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001204282041593285</v>
+      </c>
+      <c r="D5">
+        <v>0.0001376007797711576</v>
+      </c>
+      <c r="E5">
+        <v>-0.005109889759468628</v>
+      </c>
+      <c r="F5">
+        <v>-0.003693070456482584</v>
+      </c>
+      <c r="G5">
+        <v>-0.003850679147850143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.168982079991737</v>
+        <v>-0.1704874677542546</v>
       </c>
       <c r="C6">
-        <v>-0.01752119933843367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.008879256310569144</v>
+      </c>
+      <c r="D6">
+        <v>-0.06416835384483766</v>
+      </c>
+      <c r="E6">
+        <v>-0.05531076910690012</v>
+      </c>
+      <c r="F6">
+        <v>-0.05322831594998901</v>
+      </c>
+      <c r="G6">
+        <v>0.036885595094321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05122498515493225</v>
+        <v>-0.05344554380027918</v>
       </c>
       <c r="C7">
-        <v>0.06109712412919447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06258063005546087</v>
+      </c>
+      <c r="D7">
+        <v>-0.05448254312735322</v>
+      </c>
+      <c r="E7">
+        <v>0.06938651409371689</v>
+      </c>
+      <c r="F7">
+        <v>0.0479117964392851</v>
+      </c>
+      <c r="G7">
+        <v>0.05258469706568206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04518695934533008</v>
+        <v>-0.04412350374405975</v>
       </c>
       <c r="C8">
-        <v>0.05711598144942958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05503323357728346</v>
+      </c>
+      <c r="D8">
+        <v>0.01927596758703286</v>
+      </c>
+      <c r="E8">
+        <v>0.02925314700472378</v>
+      </c>
+      <c r="F8">
+        <v>0.01330855476933397</v>
+      </c>
+      <c r="G8">
+        <v>-0.01839777206277026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05756748898849904</v>
+        <v>-0.06251064406862655</v>
       </c>
       <c r="C9">
-        <v>0.09350170509639658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0936790349951352</v>
+      </c>
+      <c r="D9">
+        <v>-0.08773153177478044</v>
+      </c>
+      <c r="E9">
+        <v>0.05054683233244091</v>
+      </c>
+      <c r="F9">
+        <v>-0.01018755729416412</v>
+      </c>
+      <c r="G9">
+        <v>0.0205027299511312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.119382794126131</v>
+        <v>-0.1042302411174231</v>
       </c>
       <c r="C10">
-        <v>-0.1508880194847649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1361486055748092</v>
+      </c>
+      <c r="D10">
+        <v>0.08147350510465541</v>
+      </c>
+      <c r="E10">
+        <v>0.05504787549826892</v>
+      </c>
+      <c r="F10">
+        <v>0.02567968867604323</v>
+      </c>
+      <c r="G10">
+        <v>-0.04255728762297614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07915334173328373</v>
+        <v>-0.07623546631069475</v>
       </c>
       <c r="C11">
-        <v>0.1374788472795167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1365840803083655</v>
+      </c>
+      <c r="D11">
+        <v>-0.04975796468332026</v>
+      </c>
+      <c r="E11">
+        <v>0.06331331034819025</v>
+      </c>
+      <c r="F11">
+        <v>-0.007101556357430344</v>
+      </c>
+      <c r="G11">
+        <v>0.001284560812602782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08021090398500176</v>
+        <v>-0.07608367007555607</v>
       </c>
       <c r="C12">
-        <v>0.1647758253265665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.161458233401639</v>
+      </c>
+      <c r="D12">
+        <v>-0.0484452411411623</v>
+      </c>
+      <c r="E12">
+        <v>0.06535239078314002</v>
+      </c>
+      <c r="F12">
+        <v>0.02852718082183095</v>
+      </c>
+      <c r="G12">
+        <v>0.006321053796677347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03904188499934529</v>
+        <v>-0.04150605099419213</v>
       </c>
       <c r="C13">
-        <v>0.07172917170405099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07560406905816779</v>
+      </c>
+      <c r="D13">
+        <v>-0.03408133252273147</v>
+      </c>
+      <c r="E13">
+        <v>0.07427126366748993</v>
+      </c>
+      <c r="F13">
+        <v>0.0370030135832824</v>
+      </c>
+      <c r="G13">
+        <v>0.01734864411029685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02061958523246568</v>
+        <v>-0.02313519350484062</v>
       </c>
       <c r="C14">
-        <v>0.05042065970537455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0525653537916712</v>
+      </c>
+      <c r="D14">
+        <v>-0.04437522806514117</v>
+      </c>
+      <c r="E14">
+        <v>0.06945357318295493</v>
+      </c>
+      <c r="F14">
+        <v>-0.004214878314256417</v>
+      </c>
+      <c r="G14">
+        <v>-0.01171992377812318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03343830828987898</v>
+        <v>-0.03327447794481796</v>
       </c>
       <c r="C15">
-        <v>0.06582565352438534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06346620429297148</v>
+      </c>
+      <c r="D15">
+        <v>-0.04651619029241348</v>
+      </c>
+      <c r="E15">
+        <v>0.01586629890600216</v>
+      </c>
+      <c r="F15">
+        <v>0.02997436179188324</v>
+      </c>
+      <c r="G15">
+        <v>0.005300257156551702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05570733907595226</v>
+        <v>-0.05422774328785493</v>
       </c>
       <c r="C16">
-        <v>0.1596175179605347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1587058880783445</v>
+      </c>
+      <c r="D16">
+        <v>-0.0456779226228848</v>
+      </c>
+      <c r="E16">
+        <v>0.04986479047945888</v>
+      </c>
+      <c r="F16">
+        <v>-0.01905346232901509</v>
+      </c>
+      <c r="G16">
+        <v>-0.003907555749915975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008230977836513676</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.00445799730159238</v>
+      </c>
+      <c r="D17">
+        <v>0.003127498194414421</v>
+      </c>
+      <c r="E17">
+        <v>-0.01053534774454169</v>
+      </c>
+      <c r="F17">
+        <v>0.0126492084004233</v>
+      </c>
+      <c r="G17">
+        <v>-0.01661049269399133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04524128670921004</v>
+        <v>-0.05575943797769751</v>
       </c>
       <c r="C18">
-        <v>0.05491196819096076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04801632641620694</v>
+      </c>
+      <c r="D18">
+        <v>1.049011923588223e-05</v>
+      </c>
+      <c r="E18">
+        <v>-0.06158901573429383</v>
+      </c>
+      <c r="F18">
+        <v>-0.02312252537385933</v>
+      </c>
+      <c r="G18">
+        <v>0.005549869802151069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05862726146640318</v>
+        <v>-0.05760249485966723</v>
       </c>
       <c r="C20">
-        <v>0.1074688357312729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1045676813391724</v>
+      </c>
+      <c r="D20">
+        <v>-0.06592897277962548</v>
+      </c>
+      <c r="E20">
+        <v>0.05091175050397501</v>
+      </c>
+      <c r="F20">
+        <v>0.02209191677474237</v>
+      </c>
+      <c r="G20">
+        <v>0.001071594874117745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04303622972779109</v>
+        <v>-0.04486058320322676</v>
       </c>
       <c r="C21">
-        <v>0.06915387423277845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06509694778486926</v>
+      </c>
+      <c r="D21">
+        <v>-0.02694957713951886</v>
+      </c>
+      <c r="E21">
+        <v>0.05369167332738991</v>
+      </c>
+      <c r="F21">
+        <v>-0.003989291000397058</v>
+      </c>
+      <c r="G21">
+        <v>0.031620641737431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04446936126217096</v>
+        <v>-0.04499457209597421</v>
       </c>
       <c r="C22">
-        <v>0.03804327218007929</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04009688381264628</v>
+      </c>
+      <c r="D22">
+        <v>0.1118045412617342</v>
+      </c>
+      <c r="E22">
+        <v>-0.05930370410562885</v>
+      </c>
+      <c r="F22">
+        <v>-0.1542873927725386</v>
+      </c>
+      <c r="G22">
+        <v>-0.05790741531413923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04447938807734866</v>
+        <v>-0.04500328794799259</v>
       </c>
       <c r="C23">
-        <v>0.03803615871889761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04009072075964591</v>
+      </c>
+      <c r="D23">
+        <v>0.1118391683884957</v>
+      </c>
+      <c r="E23">
+        <v>-0.05930333169947132</v>
+      </c>
+      <c r="F23">
+        <v>-0.1543196921004416</v>
+      </c>
+      <c r="G23">
+        <v>-0.05797362338708445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0657672101573669</v>
+        <v>-0.06414438722986109</v>
       </c>
       <c r="C24">
-        <v>0.1433731806699146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.140075447442824</v>
+      </c>
+      <c r="D24">
+        <v>-0.04977640282316312</v>
+      </c>
+      <c r="E24">
+        <v>0.059780312483908</v>
+      </c>
+      <c r="F24">
+        <v>0.003237872903476532</v>
+      </c>
+      <c r="G24">
+        <v>0.002480626633559178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07184502398995846</v>
+        <v>-0.06914976413392811</v>
       </c>
       <c r="C25">
-        <v>0.128991422941106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1266366236222141</v>
+      </c>
+      <c r="D25">
+        <v>-0.05055147722093101</v>
+      </c>
+      <c r="E25">
+        <v>0.08164845462740809</v>
+      </c>
+      <c r="F25">
+        <v>0.02873807464929952</v>
+      </c>
+      <c r="G25">
+        <v>0.02724347474643429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05705412426431979</v>
+        <v>-0.06097979305985013</v>
       </c>
       <c r="C26">
-        <v>0.07420309927830866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07814204588907414</v>
+      </c>
+      <c r="D26">
+        <v>-0.02237097428136693</v>
+      </c>
+      <c r="E26">
+        <v>0.07288439204236223</v>
+      </c>
+      <c r="F26">
+        <v>0.02766823544521084</v>
+      </c>
+      <c r="G26">
+        <v>0.001749700463392268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1728106075679667</v>
+        <v>-0.1769307435056415</v>
       </c>
       <c r="C28">
-        <v>-0.2253111882910842</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2270560324201599</v>
+      </c>
+      <c r="D28">
+        <v>-0.01237374254538291</v>
+      </c>
+      <c r="E28">
+        <v>0.1498813559920741</v>
+      </c>
+      <c r="F28">
+        <v>0.05532052949831585</v>
+      </c>
+      <c r="G28">
+        <v>-0.02577583172213297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02535522581624809</v>
+        <v>-0.02715473432740814</v>
       </c>
       <c r="C29">
-        <v>0.05492978948491702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0546352356421807</v>
+      </c>
+      <c r="D29">
+        <v>-0.01214380560651578</v>
+      </c>
+      <c r="E29">
+        <v>0.07244571728608025</v>
+      </c>
+      <c r="F29">
+        <v>-0.007026128670535477</v>
+      </c>
+      <c r="G29">
+        <v>-0.01157191973608591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03058551863086161</v>
+        <v>-0.03379892060299454</v>
       </c>
       <c r="C30">
-        <v>0.07048234230189226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07513250878951144</v>
+      </c>
+      <c r="D30">
+        <v>-0.1273630233752046</v>
+      </c>
+      <c r="E30">
+        <v>0.06727625510517435</v>
+      </c>
+      <c r="F30">
+        <v>0.07043588735310181</v>
+      </c>
+      <c r="G30">
+        <v>0.01121560403682645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05464973758755469</v>
+        <v>-0.05340245925718224</v>
       </c>
       <c r="C31">
-        <v>0.03714008475743928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03941520444130306</v>
+      </c>
+      <c r="D31">
+        <v>0.004455628013711997</v>
+      </c>
+      <c r="E31">
+        <v>0.01632387645453449</v>
+      </c>
+      <c r="F31">
+        <v>-0.05120451160796218</v>
+      </c>
+      <c r="G31">
+        <v>0.01464476688327532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04377038210941627</v>
+        <v>-0.04699919363910622</v>
       </c>
       <c r="C32">
-        <v>0.05831561526732869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05650511163095168</v>
+      </c>
+      <c r="D32">
+        <v>-0.01415604103625875</v>
+      </c>
+      <c r="E32">
+        <v>0.0008537271367746051</v>
+      </c>
+      <c r="F32">
+        <v>0.04382829533214883</v>
+      </c>
+      <c r="G32">
+        <v>-0.0009226655227733961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07940514117911297</v>
+        <v>-0.08332427532952467</v>
       </c>
       <c r="C33">
-        <v>0.1149063098282657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1233337857372377</v>
+      </c>
+      <c r="D33">
+        <v>-0.0564894802021188</v>
+      </c>
+      <c r="E33">
+        <v>0.05632667743696701</v>
+      </c>
+      <c r="F33">
+        <v>-0.003074479465414713</v>
+      </c>
+      <c r="G33">
+        <v>-0.01871746602150181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.051280994013726</v>
+        <v>-0.05032733783187655</v>
       </c>
       <c r="C34">
-        <v>0.1347033953001624</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1335188773309034</v>
+      </c>
+      <c r="D34">
+        <v>-0.09171331866485952</v>
+      </c>
+      <c r="E34">
+        <v>0.04768576280259423</v>
+      </c>
+      <c r="F34">
+        <v>-0.02006937942363103</v>
+      </c>
+      <c r="G34">
+        <v>-0.02781226630600737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02911376620370788</v>
+        <v>-0.03110363911664774</v>
       </c>
       <c r="C35">
-        <v>0.01915433147016398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02178427721497507</v>
+      </c>
+      <c r="D35">
+        <v>-0.01437657807865643</v>
+      </c>
+      <c r="E35">
+        <v>0.02084213188470413</v>
+      </c>
+      <c r="F35">
+        <v>0.006508011608210905</v>
+      </c>
+      <c r="G35">
+        <v>-0.02484497658019954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02745822740598283</v>
+        <v>-0.02966889273728401</v>
       </c>
       <c r="C36">
-        <v>0.05541232577158146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05391854005517616</v>
+      </c>
+      <c r="D36">
+        <v>-0.0743289967963444</v>
+      </c>
+      <c r="E36">
+        <v>-0.008422637035667108</v>
+      </c>
+      <c r="F36">
+        <v>-0.0282658544227056</v>
+      </c>
+      <c r="G36">
+        <v>-0.05694585544905045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005468354755122784</v>
+        <v>-0.004397615619868238</v>
       </c>
       <c r="C37">
-        <v>-0.0005286896100107999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007976282336967986</v>
+      </c>
+      <c r="D37">
+        <v>-0.0008914377856939069</v>
+      </c>
+      <c r="E37">
+        <v>0.01211043036295972</v>
+      </c>
+      <c r="F37">
+        <v>-4.651410365331714e-05</v>
+      </c>
+      <c r="G37">
+        <v>0.004613244287117149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.080062792872147</v>
+        <v>-0.07498232125318934</v>
       </c>
       <c r="C39">
-        <v>0.1582278205020366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1517714413269637</v>
+      </c>
+      <c r="D39">
+        <v>-0.006511853725083699</v>
+      </c>
+      <c r="E39">
+        <v>0.1178016658996229</v>
+      </c>
+      <c r="F39">
+        <v>-0.003804918447153725</v>
+      </c>
+      <c r="G39">
+        <v>0.02043798529449473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05040951259601296</v>
+        <v>-0.05336456760609892</v>
       </c>
       <c r="C40">
-        <v>0.07508454086108031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07971986986957172</v>
+      </c>
+      <c r="D40">
+        <v>-0.01635727343801691</v>
+      </c>
+      <c r="E40">
+        <v>0.0359312565332674</v>
+      </c>
+      <c r="F40">
+        <v>0.04968030052739025</v>
+      </c>
+      <c r="G40">
+        <v>-0.03988279723546598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03041413272969393</v>
+        <v>-0.03018262701600935</v>
       </c>
       <c r="C41">
-        <v>0.02342520337128759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0249557798199595</v>
+      </c>
+      <c r="D41">
+        <v>0.007045098191800099</v>
+      </c>
+      <c r="E41">
+        <v>-0.01249270311816635</v>
+      </c>
+      <c r="F41">
+        <v>0.009471600114701219</v>
+      </c>
+      <c r="G41">
+        <v>-0.007359961991986978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04423774564736555</v>
+        <v>-0.04244006668033051</v>
       </c>
       <c r="C43">
-        <v>0.04142426778242545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03901824054784334</v>
+      </c>
+      <c r="D43">
+        <v>0.0161607610355203</v>
+      </c>
+      <c r="E43">
+        <v>0.01751096843113259</v>
+      </c>
+      <c r="F43">
+        <v>-0.04011302009537043</v>
+      </c>
+      <c r="G43">
+        <v>-0.01657508841479437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05533850647558467</v>
+        <v>-0.0594417699183634</v>
       </c>
       <c r="C44">
-        <v>0.09206228647714476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09470393281936773</v>
+      </c>
+      <c r="D44">
+        <v>-0.3226300216502233</v>
+      </c>
+      <c r="E44">
+        <v>0.07188059460446035</v>
+      </c>
+      <c r="F44">
+        <v>-0.01172296680306082</v>
+      </c>
+      <c r="G44">
+        <v>-0.1080232191298004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006689325327763018</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001270988646119058</v>
+      </c>
+      <c r="D45">
+        <v>0.001204176077921449</v>
+      </c>
+      <c r="E45">
+        <v>0.001625438105965702</v>
+      </c>
+      <c r="F45">
+        <v>-0.001834078063500268</v>
+      </c>
+      <c r="G45">
+        <v>0.007290940730894575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02860973854255344</v>
+        <v>-0.02991271858640212</v>
       </c>
       <c r="C46">
-        <v>0.04477057619837854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04232609286448805</v>
+      </c>
+      <c r="D46">
+        <v>0.006710186850717673</v>
+      </c>
+      <c r="E46">
+        <v>0.06106138863397614</v>
+      </c>
+      <c r="F46">
+        <v>-0.03005335912723629</v>
+      </c>
+      <c r="G46">
+        <v>0.002585535857221868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05560079702652269</v>
+        <v>-0.05310180186052928</v>
       </c>
       <c r="C47">
-        <v>0.04357697222413552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04220864916752694</v>
+      </c>
+      <c r="D47">
+        <v>0.04261097721189627</v>
+      </c>
+      <c r="E47">
+        <v>-0.01908037338285128</v>
+      </c>
+      <c r="F47">
+        <v>-0.08339480102648003</v>
+      </c>
+      <c r="G47">
+        <v>-7.942283124246e-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04792949413985439</v>
+        <v>-0.04973107222345878</v>
       </c>
       <c r="C48">
-        <v>0.07104391351154733</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.07072588278874424</v>
+      </c>
+      <c r="D48">
+        <v>-0.03698583985038863</v>
+      </c>
+      <c r="E48">
+        <v>0.05841839641749307</v>
+      </c>
+      <c r="F48">
+        <v>0.002843975817455457</v>
+      </c>
+      <c r="G48">
+        <v>0.04744420280774539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1847548112701337</v>
+        <v>-0.192152897707255</v>
       </c>
       <c r="C49">
-        <v>-0.02807425193529713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02485675401913042</v>
+      </c>
+      <c r="D49">
+        <v>-0.02626153214812273</v>
+      </c>
+      <c r="E49">
+        <v>-0.01138118828330564</v>
+      </c>
+      <c r="F49">
+        <v>0.1300513052543191</v>
+      </c>
+      <c r="G49">
+        <v>0.0162101560577437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05369890135222131</v>
+        <v>-0.05314824693222908</v>
       </c>
       <c r="C50">
-        <v>0.03655584821975519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03952731915012195</v>
+      </c>
+      <c r="D50">
+        <v>-0.01059600912460282</v>
+      </c>
+      <c r="E50">
+        <v>0.008354388805827308</v>
+      </c>
+      <c r="F50">
+        <v>-0.04324205784483894</v>
+      </c>
+      <c r="G50">
+        <v>0.0250982653021399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1403322324387211</v>
+        <v>-0.1352819756640122</v>
       </c>
       <c r="C52">
-        <v>0.03601575502815137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03459250267034494</v>
+      </c>
+      <c r="D52">
+        <v>-0.02710433731684107</v>
+      </c>
+      <c r="E52">
+        <v>-0.08752352971166961</v>
+      </c>
+      <c r="F52">
+        <v>-0.1185434813209985</v>
+      </c>
+      <c r="G52">
+        <v>0.03485387519891594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1671484108520596</v>
+        <v>-0.1608593088856872</v>
       </c>
       <c r="C53">
-        <v>-0.01152493839993963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009634288472069742</v>
+      </c>
+      <c r="D53">
+        <v>-0.04386956451408631</v>
+      </c>
+      <c r="E53">
+        <v>-0.12655655080963</v>
+      </c>
+      <c r="F53">
+        <v>-0.1544635731296879</v>
+      </c>
+      <c r="G53">
+        <v>0.07273390287402301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01179577487635989</v>
+        <v>-0.01366007880402441</v>
       </c>
       <c r="C54">
-        <v>0.04128179543504829</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04166915406915715</v>
+      </c>
+      <c r="D54">
+        <v>-0.01639074714255786</v>
+      </c>
+      <c r="E54">
+        <v>0.03846684715123743</v>
+      </c>
+      <c r="F54">
+        <v>0.0008545758191342735</v>
+      </c>
+      <c r="G54">
+        <v>0.003343746768492747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121484170798466</v>
+        <v>-0.1197078494489955</v>
       </c>
       <c r="C55">
-        <v>0.01798929079796225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0190645998769066</v>
+      </c>
+      <c r="D55">
+        <v>-0.03328068171606165</v>
+      </c>
+      <c r="E55">
+        <v>-0.05803432214025139</v>
+      </c>
+      <c r="F55">
+        <v>-0.1811057337462359</v>
+      </c>
+      <c r="G55">
+        <v>0.06988462706397418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1803810522482046</v>
+        <v>-0.175398589820934</v>
       </c>
       <c r="C56">
-        <v>-0.009045629639001495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01038465077607533</v>
+      </c>
+      <c r="D56">
+        <v>-0.00249005501282911</v>
+      </c>
+      <c r="E56">
+        <v>-0.1578427420106281</v>
+      </c>
+      <c r="F56">
+        <v>-0.1592189396391765</v>
+      </c>
+      <c r="G56">
+        <v>0.09795965578462901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04199625902364534</v>
+        <v>-0.04151000662892151</v>
       </c>
       <c r="C58">
-        <v>0.09712005807234002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1081788568472282</v>
+      </c>
+      <c r="D58">
+        <v>0.01074245935419716</v>
+      </c>
+      <c r="E58">
+        <v>0.04116739177949783</v>
+      </c>
+      <c r="F58">
+        <v>-0.006973785077470153</v>
+      </c>
+      <c r="G58">
+        <v>-0.002317004586233997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1820184059685092</v>
+        <v>-0.1890631032315916</v>
       </c>
       <c r="C59">
-        <v>-0.1644640225837791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.170807814881571</v>
+      </c>
+      <c r="D59">
+        <v>0.09406258954167349</v>
+      </c>
+      <c r="E59">
+        <v>0.07607715275287616</v>
+      </c>
+      <c r="F59">
+        <v>0.03103667731600764</v>
+      </c>
+      <c r="G59">
+        <v>-0.009451523493516538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2064437697860797</v>
+        <v>-0.2050866843897411</v>
       </c>
       <c r="C60">
-        <v>-0.0001008005222520163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003339941633492874</v>
+      </c>
+      <c r="D60">
+        <v>0.1060632817202972</v>
+      </c>
+      <c r="E60">
+        <v>-0.1411906130280638</v>
+      </c>
+      <c r="F60">
+        <v>0.07635810582940167</v>
+      </c>
+      <c r="G60">
+        <v>0.07552600334511614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06152751062604293</v>
+        <v>-0.05968497979446549</v>
       </c>
       <c r="C61">
-        <v>0.1340579108169298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1306213448497933</v>
+      </c>
+      <c r="D61">
+        <v>-0.01244940018715401</v>
+      </c>
+      <c r="E61">
+        <v>0.07462996468257539</v>
+      </c>
+      <c r="F61">
+        <v>0.03047749559072097</v>
+      </c>
+      <c r="G61">
+        <v>0.009221345656265298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1698246627454704</v>
+        <v>-0.1662613088668517</v>
       </c>
       <c r="C62">
-        <v>-0.005138678446062079</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.005080032399225236</v>
+      </c>
+      <c r="D62">
+        <v>-0.004575658897184501</v>
+      </c>
+      <c r="E62">
+        <v>-0.135353461418968</v>
+      </c>
+      <c r="F62">
+        <v>-0.1510217737449316</v>
+      </c>
+      <c r="G62">
+        <v>0.07463157591028668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04164093146869519</v>
+        <v>-0.04397527687964711</v>
       </c>
       <c r="C63">
-        <v>0.07962190560256754</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0833015926756122</v>
+      </c>
+      <c r="D63">
+        <v>-0.02203582951024372</v>
+      </c>
+      <c r="E63">
+        <v>0.03891756119066653</v>
+      </c>
+      <c r="F63">
+        <v>0.006672376776523035</v>
+      </c>
+      <c r="G63">
+        <v>-0.0313769420858515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1140294273361359</v>
+        <v>-0.1114041762892446</v>
       </c>
       <c r="C64">
-        <v>0.06320737887101754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06497953386313096</v>
+      </c>
+      <c r="D64">
+        <v>-0.01935695880132591</v>
+      </c>
+      <c r="E64">
+        <v>-0.05203597293550438</v>
+      </c>
+      <c r="F64">
+        <v>0.01710632132354471</v>
+      </c>
+      <c r="G64">
+        <v>0.02737283638041274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1605902744911206</v>
+        <v>-0.1629867789354013</v>
       </c>
       <c r="C65">
-        <v>-0.05684329592776129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04622056151626162</v>
+      </c>
+      <c r="D65">
+        <v>-0.06471064201413505</v>
+      </c>
+      <c r="E65">
+        <v>0.00109330275666719</v>
+      </c>
+      <c r="F65">
+        <v>-0.05081036582132955</v>
+      </c>
+      <c r="G65">
+        <v>0.03365922297761414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09726145053434287</v>
+        <v>-0.09241076667207797</v>
       </c>
       <c r="C66">
-        <v>0.132074554597517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1307294760182402</v>
+      </c>
+      <c r="D66">
+        <v>-0.0269743011123182</v>
+      </c>
+      <c r="E66">
+        <v>0.1015073069550185</v>
+      </c>
+      <c r="F66">
+        <v>0.01496024253898564</v>
+      </c>
+      <c r="G66">
+        <v>-0.01404310443693005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05178968726250841</v>
+        <v>-0.04484017762447414</v>
       </c>
       <c r="C67">
-        <v>0.08328018744580849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07669538286636635</v>
+      </c>
+      <c r="D67">
+        <v>0.07994549256123831</v>
+      </c>
+      <c r="E67">
+        <v>-0.0302798299707757</v>
+      </c>
+      <c r="F67">
+        <v>-0.05550616511759984</v>
+      </c>
+      <c r="G67">
+        <v>-0.0435834730177803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1465684853289675</v>
+        <v>-0.1468621953271898</v>
       </c>
       <c r="C68">
-        <v>-0.2509783828920741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2467582545099209</v>
+      </c>
+      <c r="D68">
+        <v>-0.02881129863092633</v>
+      </c>
+      <c r="E68">
+        <v>0.1554855537741103</v>
+      </c>
+      <c r="F68">
+        <v>0.06335583699710766</v>
+      </c>
+      <c r="G68">
+        <v>0.04657766631639883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04004994645596895</v>
+        <v>-0.03792925863738651</v>
       </c>
       <c r="C69">
-        <v>0.01606679467876432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0186453762481053</v>
+      </c>
+      <c r="D69">
+        <v>0.01894567539152349</v>
+      </c>
+      <c r="E69">
+        <v>-0.05934727586230918</v>
+      </c>
+      <c r="F69">
+        <v>-0.05288690389088441</v>
+      </c>
+      <c r="G69">
+        <v>-0.03979670342958043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07657775781407856</v>
+        <v>-0.07382646401398474</v>
       </c>
       <c r="C70">
-        <v>0.09150508136867258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09423298767957415</v>
+      </c>
+      <c r="D70">
+        <v>0.6526028017638945</v>
+      </c>
+      <c r="E70">
+        <v>-0.17355185319558</v>
+      </c>
+      <c r="F70">
+        <v>0.2499984337741908</v>
+      </c>
+      <c r="G70">
+        <v>0.4056569511740822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1686968886179406</v>
+        <v>-0.1709003206309889</v>
       </c>
       <c r="C71">
-        <v>-0.2532337892562421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2506342925749238</v>
+      </c>
+      <c r="D71">
+        <v>-0.01871227817707187</v>
+      </c>
+      <c r="E71">
+        <v>0.1612238511000923</v>
+      </c>
+      <c r="F71">
+        <v>0.0751653724288701</v>
+      </c>
+      <c r="G71">
+        <v>0.03876970559553287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1436697915690927</v>
+        <v>-0.1487938651218407</v>
       </c>
       <c r="C72">
-        <v>0.01045529569549396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009547008891504359</v>
+      </c>
+      <c r="D72">
+        <v>-0.03173945157830264</v>
+      </c>
+      <c r="E72">
+        <v>-0.0416747277157765</v>
+      </c>
+      <c r="F72">
+        <v>-0.1158113313945198</v>
+      </c>
+      <c r="G72">
+        <v>-0.02430856400250285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1880873391795807</v>
+        <v>-0.1977581049140782</v>
       </c>
       <c r="C73">
-        <v>0.01741956394473781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02029680633835655</v>
+      </c>
+      <c r="D73">
+        <v>-0.008330984453503923</v>
+      </c>
+      <c r="E73">
+        <v>-0.1073125098069389</v>
+      </c>
+      <c r="F73">
+        <v>-0.007888622527662726</v>
+      </c>
+      <c r="G73">
+        <v>-0.03221841316005594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0854575488016998</v>
+        <v>-0.08466622227974911</v>
       </c>
       <c r="C74">
-        <v>0.007659232075816688</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01400320910430113</v>
+      </c>
+      <c r="D74">
+        <v>-0.05089087755299163</v>
+      </c>
+      <c r="E74">
+        <v>-0.0948833547215069</v>
+      </c>
+      <c r="F74">
+        <v>-0.06093935223822569</v>
+      </c>
+      <c r="G74">
+        <v>0.009872332951773881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.120567851247216</v>
+        <v>-0.1128235977273565</v>
       </c>
       <c r="C75">
-        <v>0.02683982916475495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02767657835064885</v>
+      </c>
+      <c r="D75">
+        <v>-0.004757584238313611</v>
+      </c>
+      <c r="E75">
+        <v>-0.09151438367186156</v>
+      </c>
+      <c r="F75">
+        <v>-0.1694749620320853</v>
+      </c>
+      <c r="G75">
+        <v>0.02601941342044263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07760048723394786</v>
+        <v>-0.08658465103490864</v>
       </c>
       <c r="C77">
-        <v>0.1238791233619117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1281400840324216</v>
+      </c>
+      <c r="D77">
+        <v>-0.03692269786476873</v>
+      </c>
+      <c r="E77">
+        <v>0.09720100588525865</v>
+      </c>
+      <c r="F77">
+        <v>0.0662661740319445</v>
+      </c>
+      <c r="G77">
+        <v>0.1067258216739867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07478324550412339</v>
+        <v>-0.08209365485865477</v>
       </c>
       <c r="C78">
-        <v>0.1290931610858908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1309434673009213</v>
+      </c>
+      <c r="D78">
+        <v>-0.02479238259029547</v>
+      </c>
+      <c r="E78">
+        <v>0.09905076646883257</v>
+      </c>
+      <c r="F78">
+        <v>-0.06046879867980195</v>
+      </c>
+      <c r="G78">
+        <v>0.02152711030844998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1690721813355597</v>
+        <v>-0.1643561022534308</v>
       </c>
       <c r="C79">
-        <v>0.02003458951794027</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0198563958601023</v>
+      </c>
+      <c r="D79">
+        <v>-0.0003771771315182557</v>
+      </c>
+      <c r="E79">
+        <v>-0.07200491677561623</v>
+      </c>
+      <c r="F79">
+        <v>-0.1414172284632285</v>
+      </c>
+      <c r="G79">
+        <v>0.04020133448043321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07798428446760454</v>
+        <v>-0.07403404337580657</v>
       </c>
       <c r="C80">
-        <v>0.08449190653109558</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.08024462195436464</v>
+      </c>
+      <c r="D80">
+        <v>-0.006816247834869366</v>
+      </c>
+      <c r="E80">
+        <v>0.05277254031469249</v>
+      </c>
+      <c r="F80">
+        <v>0.06708046950372117</v>
+      </c>
+      <c r="G80">
+        <v>-0.1012460562516471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1126932748838027</v>
+        <v>-0.1058012682836277</v>
       </c>
       <c r="C81">
-        <v>-0.01133867767573146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01096680824769422</v>
+      </c>
+      <c r="D81">
+        <v>0.01787140928271401</v>
+      </c>
+      <c r="E81">
+        <v>-0.1110087671717202</v>
+      </c>
+      <c r="F81">
+        <v>-0.1508941166261087</v>
+      </c>
+      <c r="G81">
+        <v>-0.02354848824760628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1618902715703443</v>
+        <v>-0.1572442880164762</v>
       </c>
       <c r="C82">
-        <v>-0.01615016992199518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01384337488230832</v>
+      </c>
+      <c r="D82">
+        <v>-0.08165795358806284</v>
+      </c>
+      <c r="E82">
+        <v>-0.1469212774110382</v>
+      </c>
+      <c r="F82">
+        <v>-0.1207057160766372</v>
+      </c>
+      <c r="G82">
+        <v>0.0437196686475591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05322224696805433</v>
+        <v>-0.04955763675628662</v>
       </c>
       <c r="C83">
-        <v>0.06417063151938393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05934467330716788</v>
+      </c>
+      <c r="D83">
+        <v>0.03322437113212326</v>
+      </c>
+      <c r="E83">
+        <v>0.005676442853008128</v>
+      </c>
+      <c r="F83">
+        <v>0.02008843666157527</v>
+      </c>
+      <c r="G83">
+        <v>0.002343381754843379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04444854299076097</v>
+        <v>-0.04388865079887776</v>
       </c>
       <c r="C84">
-        <v>0.07337009640512443</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07191702515285686</v>
+      </c>
+      <c r="D84">
+        <v>0.02137387159833672</v>
+      </c>
+      <c r="E84">
+        <v>-0.007471815861040282</v>
+      </c>
+      <c r="F84">
+        <v>-0.03028480893712117</v>
+      </c>
+      <c r="G84">
+        <v>0.02334529980062383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1404153743916462</v>
+        <v>-0.1350843653657405</v>
       </c>
       <c r="C85">
-        <v>0.007831433364597205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.008822766664140235</v>
+      </c>
+      <c r="D85">
+        <v>-0.06892880645478799</v>
+      </c>
+      <c r="E85">
+        <v>-0.06831204198625603</v>
+      </c>
+      <c r="F85">
+        <v>-0.1468613981880979</v>
+      </c>
+      <c r="G85">
+        <v>0.0450661170779631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08446802385013144</v>
+        <v>-0.08487319851261314</v>
       </c>
       <c r="C86">
-        <v>0.1490143844996178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1561595685564051</v>
+      </c>
+      <c r="D86">
+        <v>0.5232554539488201</v>
+      </c>
+      <c r="E86">
+        <v>0.4636984571215361</v>
+      </c>
+      <c r="F86">
+        <v>-0.2932950600952965</v>
+      </c>
+      <c r="G86">
+        <v>-0.4555258729283257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08871488629514977</v>
+        <v>-0.0842232533172072</v>
       </c>
       <c r="C87">
-        <v>0.1096068173532255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.106002239470765</v>
+      </c>
+      <c r="D87">
+        <v>-0.125583783275193</v>
+      </c>
+      <c r="E87">
+        <v>0.1006123500147888</v>
+      </c>
+      <c r="F87">
+        <v>0.2102211267658178</v>
+      </c>
+      <c r="G87">
+        <v>0.01055752129670623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06006239636744529</v>
+        <v>-0.05914563198103324</v>
       </c>
       <c r="C88">
-        <v>0.06290014933267724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06379127260733881</v>
+      </c>
+      <c r="D88">
+        <v>-0.002737088029967132</v>
+      </c>
+      <c r="E88">
+        <v>-0.03161006609259161</v>
+      </c>
+      <c r="F88">
+        <v>-0.02924192554436514</v>
+      </c>
+      <c r="G88">
+        <v>0.02140850106276642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1545360273623095</v>
+        <v>-0.1533997437695944</v>
       </c>
       <c r="C89">
-        <v>-0.1983674593118537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2050286878318331</v>
+      </c>
+      <c r="D89">
+        <v>-0.02534303736425286</v>
+      </c>
+      <c r="E89">
+        <v>0.1033597525516943</v>
+      </c>
+      <c r="F89">
+        <v>0.06069080942723114</v>
+      </c>
+      <c r="G89">
+        <v>0.008269545882169009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1860281980824784</v>
+        <v>-0.1886854379397276</v>
       </c>
       <c r="C90">
-        <v>-0.2312497981778681</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2319580627947002</v>
+      </c>
+      <c r="D90">
+        <v>-0.02381926445090208</v>
+      </c>
+      <c r="E90">
+        <v>0.1869162187989148</v>
+      </c>
+      <c r="F90">
+        <v>0.1129905349036301</v>
+      </c>
+      <c r="G90">
+        <v>0.01525801334607996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1258604516425979</v>
+        <v>-0.1195885424215239</v>
       </c>
       <c r="C91">
-        <v>-0.02095605711815187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02027302426241634</v>
+      </c>
+      <c r="D91">
+        <v>0.03800511292649116</v>
+      </c>
+      <c r="E91">
+        <v>-0.1327476382159987</v>
+      </c>
+      <c r="F91">
+        <v>-0.1721707945856549</v>
+      </c>
+      <c r="G91">
+        <v>-0.03558374911940378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1746473836097047</v>
+        <v>-0.1760289771641713</v>
       </c>
       <c r="C92">
-        <v>-0.2562314391550432</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2667125665565138</v>
+      </c>
+      <c r="D92">
+        <v>-0.00373921769443132</v>
+      </c>
+      <c r="E92">
+        <v>0.2140496246023513</v>
+      </c>
+      <c r="F92">
+        <v>0.0454725990303463</v>
+      </c>
+      <c r="G92">
+        <v>0.02740968303348913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1790681463020555</v>
+        <v>-0.1858037839705326</v>
       </c>
       <c r="C93">
-        <v>-0.2209955986957076</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2224033463737647</v>
+      </c>
+      <c r="D93">
+        <v>0.01205571232054384</v>
+      </c>
+      <c r="E93">
+        <v>0.1161644474926729</v>
+      </c>
+      <c r="F93">
+        <v>0.02183772451207331</v>
+      </c>
+      <c r="G93">
+        <v>0.04800262141859064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1189233873148564</v>
+        <v>-0.1131117689097902</v>
       </c>
       <c r="C94">
-        <v>0.03302397498793686</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03321293795402899</v>
+      </c>
+      <c r="D94">
+        <v>-0.003149803521718892</v>
+      </c>
+      <c r="E94">
+        <v>-0.08294316326509661</v>
+      </c>
+      <c r="F94">
+        <v>-0.1567326380081854</v>
+      </c>
+      <c r="G94">
+        <v>0.02001065062139949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1202198409636713</v>
+        <v>-0.1191382823171968</v>
       </c>
       <c r="C95">
-        <v>0.1073097503153777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.117858649088728</v>
+      </c>
+      <c r="D95">
+        <v>-0.0002871843370308583</v>
+      </c>
+      <c r="E95">
+        <v>0.08437525936862852</v>
+      </c>
+      <c r="F95">
+        <v>0.01016987676314499</v>
+      </c>
+      <c r="G95">
+        <v>0.002972707998709974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1172855361539041</v>
+        <v>-0.1152212744088568</v>
       </c>
       <c r="C96">
-        <v>0.120953961515967</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1241575778050991</v>
+      </c>
+      <c r="D96">
+        <v>0.04291420550223262</v>
+      </c>
+      <c r="E96">
+        <v>-0.01654136298602696</v>
+      </c>
+      <c r="F96">
+        <v>0.02969679136023458</v>
+      </c>
+      <c r="G96">
+        <v>0.1341627559159581</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2044147801982512</v>
+        <v>-0.2083438786681639</v>
       </c>
       <c r="C97">
-        <v>0.0005819943971824468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006329875806135035</v>
+      </c>
+      <c r="D97">
+        <v>0.03571654917087484</v>
+      </c>
+      <c r="E97">
+        <v>-0.4330015102398835</v>
+      </c>
+      <c r="F97">
+        <v>0.3914663511204339</v>
+      </c>
+      <c r="G97">
+        <v>-0.6857795409424186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1962054202473811</v>
+        <v>-0.2040324238916916</v>
       </c>
       <c r="C98">
-        <v>0.02258533131084485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02370270561051797</v>
+      </c>
+      <c r="D98">
+        <v>0.07437858101336144</v>
+      </c>
+      <c r="E98">
+        <v>-0.05782100683763496</v>
+      </c>
+      <c r="F98">
+        <v>0.1931296564815321</v>
+      </c>
+      <c r="G98">
+        <v>0.03143528619031128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.04932780803961196</v>
+        <v>-0.0494350297014548</v>
       </c>
       <c r="C99">
-        <v>0.06039616651335362</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.06026154880679357</v>
+      </c>
+      <c r="D99">
+        <v>-0.01770020396460769</v>
+      </c>
+      <c r="E99">
+        <v>0.02863677959993777</v>
+      </c>
+      <c r="F99">
+        <v>0.01986362978218055</v>
+      </c>
+      <c r="G99">
+        <v>0.003020912982860577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1018956960009861</v>
+        <v>-0.09870784735990305</v>
       </c>
       <c r="C100">
-        <v>0.3030492956668249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2907029839375978</v>
+      </c>
+      <c r="D100">
+        <v>-0.0004358127767727523</v>
+      </c>
+      <c r="E100">
+        <v>0.06108123406639054</v>
+      </c>
+      <c r="F100">
+        <v>0.3902565273156951</v>
+      </c>
+      <c r="G100">
+        <v>0.1334126316238267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0252873740236761</v>
+        <v>-0.02709206235726038</v>
       </c>
       <c r="C101">
-        <v>0.05431413285180112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05398477324228282</v>
+      </c>
+      <c r="D101">
+        <v>-0.006811347674346509</v>
+      </c>
+      <c r="E101">
+        <v>0.06849474832238538</v>
+      </c>
+      <c r="F101">
+        <v>-0.007081579175197567</v>
+      </c>
+      <c r="G101">
+        <v>-0.008486739464060925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
